--- a/biology/Médecine/Oncologie/Oncologie.xlsx
+++ b/biology/Médecine/Oncologie/Oncologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oncologie, ou carcinologie, ou cancérologie, est la spécialité médicale d'étude, de diagnostic et de traitement des cancers. Un médecin qui pratique cette discipline est appelé oncologue, cancérologue ou encore carcinologue. Le terme vient du grec ὄγκος / ónkos, signifiant « masse, volume », et du suffixe λόγος / lógos se référant au discours, à la raison.
 </t>
@@ -511,7 +523,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dépistage des cancers peut concerner la population générale (dépistage de masse) ou bien une population cible qui présente des facteurs de risque.
 La suspicion de cancer repose sur plusieurs éléments : la clinique (les symptômes), les examens biologiques (les prises de sang), les examens d'imagerie.
@@ -546,15 +560,51 @@
           <t>Nomenclature des tumeurs malignes ou cancers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De manière générale, on divise les néoplasies malignes en quatre grandes classes :
 Les carcinomes qui dérivent d'un tissu épithélial. Ce sont les tumeurs les plus fréquentes chez l'adulte.
 Les sarcomes qui dérivent d'un tissu conjonctif (os, muscle, tissu adipeux, etc.). Ce sont des tumeurs rares (moins de 10 % de toutes les tumeurs de l'adulte)
 Les tumeurs primitives du système nerveux central (SNC)
-Les lymphomes, myélomes et leucémies qui dérivent des cellules sanguines à fonction immunitaire.
-Classification en fonction de l'histologie
-En histologie les termes consacrés en fonction des tissus touchés sont les suivants :
+Les lymphomes, myélomes et leucémies qui dérivent des cellules sanguines à fonction immunitaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oncologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nomenclature des tumeurs malignes ou cancers</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification en fonction de l'histologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En histologie les termes consacrés en fonction des tissus touchés sont les suivants :
 Tissu malpighien : carcinome épidermoïde, carcinome basocellulaire
 Tissu glandulaire : adénocarcinome
 Tissu lymphoïde ou ganglions lymphatiques: syndrome lymphoprolifératif ou lymphome
@@ -566,9 +616,43 @@
 Tissu conjonctif : sarcome
 Tissu osseux : ostéosarcome
 Tissu cartilagineux : chondrosarcome
-Tissu vasculaire : angiosarcome, etc.
-Classification par appareil
-Dans la pratique médicale les pathologies malignes sont classées par spécialité et par organes (cancer du sein, cancer du poumon). La classification par spécialité correspond de façon pragmatique au spécialiste qui diagnostique ou prend en charge ce type de tumeur. La forme histologique la plus fréquente sert de modèle d'étude pour les formes plus rares. Les formes qui bénéficient d'une prise en charge particulière sont étudiées à part. Les tumeurs du tissu conjonctif sarcome et du tissu hématopoïétique (leucémies, lymphomes et myélomes) ont la particularité d'être observables dans tous les organes. Il s'agit de les distinguer lors de l'analyse anatomo-pathologique, car elles bénéficient en général d'une prise en charge spécifique.
+Tissu vasculaire : angiosarcome, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oncologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nomenclature des tumeurs malignes ou cancers</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification par appareil</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans la pratique médicale les pathologies malignes sont classées par spécialité et par organes (cancer du sein, cancer du poumon). La classification par spécialité correspond de façon pragmatique au spécialiste qui diagnostique ou prend en charge ce type de tumeur. La forme histologique la plus fréquente sert de modèle d'étude pour les formes plus rares. Les formes qui bénéficient d'une prise en charge particulière sont étudiées à part. Les tumeurs du tissu conjonctif sarcome et du tissu hématopoïétique (leucémies, lymphomes et myélomes) ont la particularité d'être observables dans tous les organes. Il s'agit de les distinguer lors de l'analyse anatomo-pathologique, car elles bénéficient en général d'une prise en charge spécifique.
 Tumeurs du système nerveux
 Tumeurs cérébrales primitives
 Métastases cérébrales
@@ -604,31 +688,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Oncologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oncologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Stadification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le cancérologue établit pour chaque maladie cancéreuse une stadification correspondant à l'avancée de la maladie. Les stades désignent différentes gravités de la maladie cancéreuse selon différents critères variables selon la nature du tissu cancéreux. Pour chaque type de cancer, il existe une voire plusieurs stadifications. Généralement, un rapprochement entre elles est recherché au niveau international :
 Stade de l'OMS
@@ -640,31 +726,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Oncologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oncologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Thérapies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs modalités de traitement sont possibles pour le cancer. Souvent, il faut recourir à plusieurs traitements pour une même personne :
 Chimiothérapie
@@ -680,31 +768,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Oncologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oncologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Suivi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est difficile de définir la guérison après un cancer. Celle-ci peut être affirmée uniquement de façon rétrospective lorsque aucune rechute n'a été observée. En général, on estime qu'une durée de cinq ans sans rechute après la fin du traitement est nécessaire pour pouvoir parler de guérison. Néanmoins, la rechute est toujours possible au-delà de cinq ans ; il est de plus tout à fait possible d'avoir un second cancer. En Europe, une femme sur dix environ aura dans sa vie un cancer du sein. Statistiquement une femme sur cent aura deux cancers du sein.
 Tant que la guérison ne peut être affirmée, on parle de rémission. Celle-ci peut être complète, si on ne voit plus aucune trace du cancer, ou partielle, si on voit encore des anomalies aux examens.
@@ -713,31 +803,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Oncologie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oncologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Soins palliatifs, soins de support, accompagnement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est très difficile pour un malade de devoir subir l'épreuve qu'est l'annonce de cette maladie stigmatisante et les traitements qui en découlent : chirurgie (parfois mutilante), radiothérapie et surtout chimiothérapie. C'est pourquoi certains hôpitaux mettent en place un système d'accompagnement : des personnes bénévoles ou non viennent voir les patients.
 Afin d'aider les patients à vivre durant leur maladie et aussi lorsqu’un traitement curatif n'est plus envisageable, il a été mis en place les soins palliatifs (quand une thérapeutique active n'est plus envisageable) et les soins de support (pour soutenir les patients atteints de maladie grave en particulier dans la prise en charge des symptômes invalidants). La prise en charge en soins palliatifs se veut globale, prenant en charge les symptômes physiques, sociaux psychologiques et spirituels, en centrant toujours son attention sur l'humain. Elle a pour mission d'accompagner les familles. En France, la socio-oncologie fait partie des soins de supports. Elle permet d'accompagner les malades et leurs proches afin de préserver au mieux les liens sociaux qu'ils soient familiaux ou professionnels.
@@ -745,58 +837,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Oncologie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Équipe mobile d'oncologie</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Oncologie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Aspects éthiques</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
@@ -818,15 +858,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Progrès et recherche en oncologie</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nouvelles voies s'ouvrent, toujours au stade de la recherche fondamentale, notamment l'oncologie physique, qui permet de mesurer les paramètres mécaniques régissant les rapports entre la matrice extracellulaire, le tissu cancéreux et les tissus normaux[1],[2].
-</t>
-        </is>
-      </c>
+          <t>Équipe mobile d'oncologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -849,19 +886,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Progrès de l'Information des médecins du travail pour prévenir le cancer professionnel</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette prévention du cancer passe par un savoir régulièrement mis à jour des médecins du domaine de la médecine du travail. Pour les y aider, dans le cadre du Plan cancer 2009-2013[3], l'INCa a commandité deux enquêtes (auprès de plus de 600 médecins) visant à dresser un état des lieux des sources d'information sur la prévention primaire des cancers d'origine professionnelle pour les médecins du travail (qui se disent confrontés à ce risque pour 93,5 % des interrogés) et à mettre en lumière des besoins et des pistes d'action spécifiques, notamment dans les secteurs du bâtiment, des travaux publics et de l'industrie où la demande des médecins du travail est la plus marquée. « Archives des maladies professionnelles et de l'environnement »[4].
-Plus de 60 % des médecins interrogés utilisent la presse et les livres, et de plus en plus l'internet (45 %), les formations continues (31 %), congrès ou colloques (20 %), les agences et organismes publics (25 %), les échanges avec des confrères (15 %), cours et documents personnels (10 %)[4].
-seuls 64 % d'entre eux sont « satisfaits de leurs possibilités d'actualiser leurs connaissances »[4].
-95 % souhaitent avoir accès à documents de synthèse des connaissances scientifiques, des informations régulièrement actualisées sur les outils disponibles (93 %, avec par ex : le dossier médical en santé au travail, la fiche de départ de l'entreprise, etc.) et jugeraient utiles des recommandations pour le suivi des travailleurs exposés aux CMR (95 %), et des actualisations de la législation (92,5 %)[4].
-À la suite de ces travaux, un « guide de ressources documentaires » et un « bulletin de veille » destiné aux médecins du travail et services de santé au travail sont annoncés en 2013[4].
-</t>
-        </is>
-      </c>
+          <t>Aspects éthiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -884,13 +914,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Traitements alternatifs</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Les traitements alternatifs contre le cancer sont nombreux sur Internet. Ils promettent guérison et bonheur, sur des infondés scientifiques. Les oncologues ont ainsi fort à faire pour transmettre une information loyale, claire et appropriée au patient.</t>
+          <t>Progrès et recherche en oncologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nouvelles voies s'ouvrent, toujours au stade de la recherche fondamentale, notamment l'oncologie physique, qui permet de mesurer les paramètres mécaniques régissant les rapports entre la matrice extracellulaire, le tissu cancéreux et les tissus normaux,.
+</t>
         </is>
       </c>
     </row>
@@ -915,10 +947,82 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Progrès de l'Information des médecins du travail pour prévenir le cancer professionnel</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette prévention du cancer passe par un savoir régulièrement mis à jour des médecins du domaine de la médecine du travail. Pour les y aider, dans le cadre du Plan cancer 2009-2013, l'INCa a commandité deux enquêtes (auprès de plus de 600 médecins) visant à dresser un état des lieux des sources d'information sur la prévention primaire des cancers d'origine professionnelle pour les médecins du travail (qui se disent confrontés à ce risque pour 93,5 % des interrogés) et à mettre en lumière des besoins et des pistes d'action spécifiques, notamment dans les secteurs du bâtiment, des travaux publics et de l'industrie où la demande des médecins du travail est la plus marquée. « Archives des maladies professionnelles et de l'environnement ».
+Plus de 60 % des médecins interrogés utilisent la presse et les livres, et de plus en plus l'internet (45 %), les formations continues (31 %), congrès ou colloques (20 %), les agences et organismes publics (25 %), les échanges avec des confrères (15 %), cours et documents personnels (10 %).
+seuls 64 % d'entre eux sont « satisfaits de leurs possibilités d'actualiser leurs connaissances ».
+95 % souhaitent avoir accès à documents de synthèse des connaissances scientifiques, des informations régulièrement actualisées sur les outils disponibles (93 %, avec par ex : le dossier médical en santé au travail, la fiche de départ de l'entreprise, etc.) et jugeraient utiles des recommandations pour le suivi des travailleurs exposés aux CMR (95 %), et des actualisations de la législation (92,5 %).
+À la suite de ces travaux, un « guide de ressources documentaires » et un « bulletin de veille » destiné aux médecins du travail et services de santé au travail sont annoncés en 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oncologie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Traitements alternatifs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les traitements alternatifs contre le cancer sont nombreux sur Internet. Ils promettent guérison et bonheur, sur des infondés scientifiques. Les oncologues ont ainsi fort à faire pour transmettre une information loyale, claire et appropriée au patient.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oncologie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncologie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Centres de recherche en France</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Institute for Advanced Biosciences
 Le Centre international de recherche sur le cancer (CIRC), en anglais International Agency for Research on Cancer (IARC)</t>
